--- a/hamming_codes_testing/test/HammingTestingResult.xlsx
+++ b/hamming_codes_testing/test/HammingTestingResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaj/Documents/Repositories/HammingCodes/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA19EEB-81F8-D449-A83E-FEA11BD20FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BA695-A6F8-CC47-8179-C6329547AFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{9CC900A8-12C8-6D4A-90A7-896FC5B8A195}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>size: 4096</t>
   </si>
@@ -168,19 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4220,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86A88D-CA02-C545-9C84-BEA8F50FE266}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4552,7 +4550,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -4565,239 +4563,421 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
+      <c r="L47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>4096</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>8192</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>16384</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48">
         <v>4096</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
         <v>8192</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>16384</v>
       </c>
+      <c r="L48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>4096</v>
+      </c>
+      <c r="N48">
+        <v>8192</v>
+      </c>
+      <c r="O48" s="5">
+        <v>16384</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>4096</v>
+      </c>
+      <c r="S48">
+        <v>8192</v>
+      </c>
+      <c r="T48" s="5">
+        <v>16384</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>0.16</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49">
         <v>0.08</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>0.15</v>
       </c>
+      <c r="L49" s="4">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N49">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="S49">
+        <v>4.5999999999999999E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>3</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>0.04</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="F50" s="4">
         <v>3</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
+      <c r="L50" s="4">
+        <v>3</v>
+      </c>
+      <c r="M50" s="9">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>4</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>6.3E-2</v>
       </c>
       <c r="F51" s="4">
         <v>4</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="9">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>5</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52">
         <v>3.1E-2</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52">
         <v>0.03</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="L52" s="4">
+        <v>5</v>
+      </c>
+      <c r="M52" s="9">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>6</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53">
         <v>0.03</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F53" s="4">
         <v>6</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>5.5E-2</v>
       </c>
+      <c r="L53" s="4">
+        <v>6</v>
+      </c>
+      <c r="M53" s="9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>7</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54">
         <v>3.1E-2</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F54" s="4">
         <v>7</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54">
         <v>0.03</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>6.2E-2</v>
       </c>
+      <c r="L54" s="4">
+        <v>7</v>
+      </c>
+      <c r="M54" s="9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>8</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F55" s="4">
         <v>8</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55">
         <v>3.1E-2</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="L55" s="4">
+        <v>8</v>
+      </c>
+      <c r="M55" s="9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>8</v>
+      </c>
+      <c r="R55">
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>9</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>9</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <v>6.3E-2</v>
+      </c>
+      <c r="L56" s="6">
+        <v>9</v>
+      </c>
+      <c r="M56" s="9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.04</v>
+      </c>
+      <c r="I57">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N57">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="O57">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="S57">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="T57">
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
